--- a/xls_ex8_updated.xlsx
+++ b/xls_ex8_updated.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\NTNU\Tidsrekker\Tidsrekker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillakarlsen/Desktop/Tidsrekker/Tidsrekker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB7CE35-A326-4406-A83F-92BA30098B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214267A3-3AAC-2943-A41F-C680F22DA4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1238,7 +1249,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1250,6 +1261,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1605,27 +1617,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C238"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+      <selection activeCell="E242" sqref="E242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1713,7 +1725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1746,7 +1758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1779,7 +1791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1823,7 +1835,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1911,7 +1923,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1933,7 +1945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1955,7 +1967,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1977,7 +1989,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2010,7 +2022,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -2032,7 +2044,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2043,7 +2055,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2065,7 +2077,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,7 +2099,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -2098,7 +2110,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2131,7 +2143,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2153,7 +2165,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,7 +2231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2263,7 +2275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2274,7 +2286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2285,7 +2297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2307,7 +2319,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2318,7 +2330,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2329,7 +2341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2340,7 +2352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2362,7 +2374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2395,7 +2407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2417,7 +2429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2428,7 +2440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2439,7 +2451,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2450,7 +2462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2461,7 +2473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2516,7 +2528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2527,7 +2539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2549,7 +2561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2560,7 +2572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2593,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2615,7 +2627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2681,7 +2693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2692,7 +2704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2703,7 +2715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2714,7 +2726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -2747,7 +2759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -2769,7 +2781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -2780,7 +2792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -2802,7 +2814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -2813,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -2824,7 +2836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -2835,7 +2847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -2868,7 +2880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -2879,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -2890,7 +2902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -2901,7 +2913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -2912,7 +2924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -2923,7 +2935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -2934,7 +2946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -2945,7 +2957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -2967,7 +2979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -2978,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -2989,7 +3001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3000,7 +3012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -3055,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -3066,7 +3078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -3088,7 +3100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -3099,7 +3111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -3110,7 +3122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -3132,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -3154,7 +3166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -3165,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -3176,7 +3188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -3220,7 +3232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -3242,7 +3254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -3264,7 +3276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -3275,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -3286,7 +3298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -3308,7 +3320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -3319,7 +3331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -3330,7 +3342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -3341,7 +3353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -3352,7 +3364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -3396,7 +3408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -3407,7 +3419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -3418,7 +3430,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -3429,7 +3441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -3440,7 +3452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -3462,7 +3474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -3484,7 +3496,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -3495,7 +3507,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -3528,7 +3540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -3539,7 +3551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -3550,7 +3562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -3561,7 +3573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -3572,7 +3584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -3583,7 +3595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -3594,7 +3606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -3638,7 +3650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -3649,7 +3661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -3660,7 +3672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -3671,7 +3683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -3682,7 +3694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -3726,7 +3738,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -3748,7 +3760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -3759,7 +3771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -3770,7 +3782,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -3781,7 +3793,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -3792,7 +3804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -3803,7 +3815,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -3814,7 +3826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -3836,7 +3848,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -3847,7 +3859,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -3869,7 +3881,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -3880,7 +3892,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -3891,7 +3903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -3902,7 +3914,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -3924,7 +3936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -3935,7 +3947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -3979,7 +3991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -3990,7 +4002,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -4001,7 +4013,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -4023,7 +4035,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -4034,7 +4046,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -4045,7 +4057,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -4056,7 +4068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -4078,7 +4090,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -4089,7 +4101,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -4100,7 +4112,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -4111,7 +4123,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -4155,7 +4167,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -4166,7 +4178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -4177,7 +4189,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -4187,8 +4199,9 @@
       <c r="C234" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -4198,8 +4211,9 @@
       <c r="C235" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="5"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -4209,28 +4223,33 @@
       <c r="C236" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236" s="5"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B237" s="2">
-        <v>15780</v>
+        <f>+B236+C237</f>
+        <v>15837</v>
       </c>
       <c r="C237" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B238" s="2">
-        <v>15791</v>
+        <f>+B237+C238</f>
+        <v>15992</v>
       </c>
       <c r="C238" s="2">
         <v>155</v>
       </c>
+      <c r="D238" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
